--- a/Data/Transitions/19391974Translation.xlsx
+++ b/Data/Transitions/19391974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="771">
   <si>
     <t>id</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Rel</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7512315030382182e-06, 166.0: 0.0012804097311139564}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7174174533209238e-06, 166.0: 0.0012804097311139564}</t>
   </si>
   <si>
     <t>{5.0: 0.9810626254491548, 403.0: 0.006689567890074128}</t>
@@ -79,13 +79,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 0.9879518072289156}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 0.989247311827957, 96.0: 0.989247311827957, 100.0: 0.989247311827957}</t>
@@ -100,7 +100,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 1.0, 267.0: 0.9297082228116711, 887.0: 0.0036515616276937978, 834.0: 0.013634150300275929, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.4500769944503822e-07}</t>
+    <t>{61.0: 1.0, 267.0: 0.9297082228116711, 887.0: 0.0036515616276937978, 834.0: 0.013634150300275929, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.2666322734806188e-07}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -136,10 +136,10 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.985751361164705}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9857571080201947}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491, 914.0: 0.001365578724140128, 110.0: 0.0001885338002122541, 860.0: 1.0}</t>
@@ -151,7 +151,7 @@
     <t>{84.0: 0.6735799921564724}</t>
   </si>
   <si>
-    <t>{85.0: 0.9860474391232572, 178.0: 0.008664599557702168, 492.0: 0.003406653584028076, 97.0: 1.3172174322003193e-05, 696.0: 3.4329730440323237e-06}</t>
+    <t>{85.0: 0.9860093715892131, 178.0: 0.00871050004435666, 492.0: 0.003406653584028076, 97.0: 1.313197655262991e-05, 696.0: 3.335496329009212e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -163,19 +163,19 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.4030499998860047e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.10635135141719504}</t>
+    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.3973902580550808e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9710404310226443}</t>
+    <t>{97.0: 0.9710736238304881}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -217,7 +217,7 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.0003658764490503502}</t>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.0003658795242960575}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -235,7 +235,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
+    <t>{152.0: 0.9280286630608138}</t>
   </si>
   <si>
     <t>{185.0: 0.9751506024096386, 700.0: 0.6938526302422036, 173.0: 0.07662878361651851}</t>
@@ -265,10 +265,10 @@
     <t>{171.0: 0.934845750020056}</t>
   </si>
   <si>
-    <t>{172.0: 1.0, 81.0: 0.013738694929124806, 97.0: 0.0012500520481753916}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
+    <t>{172.0: 1.0, 81.0: 0.013738775024671702, 97.0: 0.0012500947783605665}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
   </si>
   <si>
     <t>{174.0: 0.9086158707011788, 502.0: 0.9086158707011788, 534.0: 0.0004147510536123148, 695.0: 0.001667185083855374, 786.0: 0.9086158707011788, 204.0: 0.03303145757253349}</t>
@@ -283,13 +283,13 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 850.0: 0.001415488374311739}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 850.0: 0.0012467412429927535, 410.0: 0.013675588708497879, 77.0: 0.00024278083201257624}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 850.0: 0.0014179661304327988}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 850.0: 0.0012495897215178515, 410.0: 0.013675588708497879, 77.0: 0.00024278083201257624}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
@@ -301,13 +301,13 @@
     <t>{183.0: 1.0, 282.0: 1.0, 277.0: 0.0036082474226804126}</t>
   </si>
   <si>
-    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.3421902644130816e-09}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
+    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.324674369841023e-09}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
   </si>
   <si>
     <t>{202.0: 0.29814984568413466, 307.0: 0.9834669117201308}</t>
@@ -328,19 +328,19 @@
     <t>{208.0: 0.999708242159008, 688.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
-  </si>
-  <si>
-    <t>{213.0: 1.0, 85.0: 0.003531056183073437, 178.0: 3.102810942776067e-05, 492.0: 1.2199296630360164e-05, 97.0: 4.716982747360141e-08, 696.0: 1.2293547158575914e-08}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
+  </si>
+  <si>
+    <t>{213.0: 1.0, 85.0: 0.0035309198624501816, 178.0: 3.119248001560129e-05, 492.0: 1.2199296630360164e-05, 97.0: 4.702587843376871e-08, 696.0: 1.194448103494794e-08}</t>
   </si>
   <si>
     <t>{214.0: 1.0, 99.0: 0.0020604395604395605, 230.0: 1.0037215317807679e-05}</t>
@@ -373,7 +373,7 @@
     <t>{226.0: 0.7384353461125667, 216.0: 0.033211370672670985}</t>
   </si>
   <si>
-    <t>{227.0: 0.9794344473007712, 844.0: 0.003870007694306637}</t>
+    <t>{227.0: 0.9794344473007712, 844.0: 0.003890504259387373}</t>
   </si>
   <si>
     <t>{230.0: 0.995128604832424, 581.0: 0.0017099938141341248}</t>
@@ -388,13 +388,13 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -412,10 +412,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.00771386760273191, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06, 618.0: 0.0016652789342214821}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06, 618.0: 0.0016652789342214821}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -436,7 +436,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9861425329695047}</t>
+    <t>{253.0: 0.9861856595765358}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -460,7 +460,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
   </si>
   <si>
     <t>{263.0: 0.9979662270430174}</t>
@@ -469,7 +469,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
@@ -508,10 +508,10 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081, 70.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026298366265383358, 142.0: 1.797534470597053e-05}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195, 70.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026172626732387502, 142.0: 1.797534470597053e-05}</t>
   </si>
   <si>
     <t>{287.0: 1.0, 847.0: 1.0, 409.0: 1.0, 750.0: 1.0}</t>
@@ -547,7 +547,7 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3974350662682385e-07}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3974468119168037e-07}</t>
   </si>
   <si>
     <t>{303.0: 0.9475683890577508, 840.0: 0.10136869118905047}</t>
@@ -571,7 +571,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -592,7 +592,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -601,13 +601,13 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
+    <t>{400.0: 0.9375071729331006, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379, 165.0: 0.0005466721333880005, 914.0: 0.0001117479774241194, 110.0: 1.5428089554535637e-05}</t>
   </si>
   <si>
-    <t>{402.0: 0.9631065512242976, 141.0: 0.001462755443927208}</t>
+    <t>{402.0: 0.9631027328570206, 141.0: 0.001462755443927208}</t>
   </si>
   <si>
     <t>{403.0: 0.9933104321099259}</t>
@@ -649,7 +649,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9911644356572448, 212.0: 0.0008028873516867112}</t>
+    <t>{420.0: 0.9911644356572448, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -670,10 +670,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -694,7 +694,7 @@
     <t>{434.0: 1.0, 585.0: 0.2521276595744681}</t>
   </si>
   <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5751974037386366e-06}</t>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5571981727767432e-06}</t>
   </si>
   <si>
     <t>{436.0: 0.9924575738529227}</t>
@@ -721,13 +721,13 @@
     <t>{475.0: 0.9825250343608875, 32.0: 1.0, 590.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 402.0: 0.035199312420877364, 141.0: 5.346032149888464e-05}</t>
+    <t>{476.0: 1.0, 402.0: 0.035199172868402566, 141.0: 5.346032149888464e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -760,13 +760,13 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.027692600544453445, 696.0: 0.0010033170977494122, 85.0: 0.0014245921465699139, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.02765941663047021, 696.0: 0.0009748286553524804, 85.0: 0.0014245371484958996, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 0.9964826549013788}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -778,7 +778,7 @@
     <t>{498.0: 1.0, 47.0: 0.012048192771084338}</t>
   </si>
   <si>
-    <t>{499.0: 0.6963241911572106, 270.0: 0.9996682484918197, 479.0: 0.02116481274502622, 679.0: 1.0, 769.0: 0.5056044835868695}</t>
+    <t>{499.0: 0.6963241911572106, 270.0: 0.9996682484918197, 479.0: 0.020537856992426304, 679.0: 1.0, 769.0: 0.5056044835868695}</t>
   </si>
   <si>
     <t>{500.0: 0.9922541481411947, 277.0: 0.0002631201196722609}</t>
@@ -814,7 +814,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995840840711535, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06, 174.0: 0.08883217887957225, 502.0: 0.08883217887957225, 695.0: 0.00016299482363224267, 786.0: 0.08883217887957225, 204.0: 0.002639955263887183}</t>
+    <t>{534.0: 0.9995840840711535, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06, 174.0: 0.08883217887957225, 502.0: 0.08883217887957225, 695.0: 0.00016299482363224267, 786.0: 0.08883217887957225, 204.0: 0.002639955263887183}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -823,7 +823,7 @@
     <t>{536.0: 1.0, 779.0: 0.9517781796262809}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -835,7 +835,7 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 1.0, 911.0: 0.012496045555204052}</t>
+    <t>{542.0: 1.0, 911.0: 0.012482224680044242}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -889,7 +889,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -907,19 +907,19 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597, 85.0: 0.005397362490856421, 178.0: 4.742772284122022e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.210099310416157e-08, 696.0: 1.879118509395074e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 1.0, 402.0: 0.0010326311441553077}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007, 85.0: 0.0053971541192586485, 178.0: 4.767896994673605e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.188096116246882e-08, 696.0: 1.8257623376204746e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 1.0, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -946,7 +946,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.619199737790098, 610.0: 0.46377929329690437, 531.0: 0.12147832833239579, 262.0: 0.0026866848142964757, 442.0: 0.0002552065721268819, 1.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 0.9983347210657785, 789.0: 0.10684711957973467, 681.0: 0.008360022404934518, 171.0: 4.019628965645018e-05, 90.0: 6.01421623358749e-06, 420.0: 1.042437961507482e-08, 212.0: 6.511616408654362e-05}</t>
+    <t>{618.0: 0.9983347210657785, 789.0: 0.10684711957973467, 681.0: 0.008359295381328206, 171.0: 4.019628965645018e-05, 90.0: 6.01421623358749e-06, 420.0: 1.042437961507482e-08, 212.0: 6.511637700023861e-05}</t>
   </si>
   <si>
     <t>{619.0: 0.9992133045579098}</t>
@@ -1024,7 +1024,7 @@
     <t>{680.0: 0.9762594508880611, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 477.0: 4.470586942759928e-05, 202.0: 3.445934204132267e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
   </si>
   <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007039869053910691}</t>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 0.9972826086956522, 575.0: 0.001898599635799961}</t>
@@ -1057,16 +1057,16 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247, 107.0: 0.0014306987065315776, 505.0: 1.331358853608483e-05}</t>
   </si>
   <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.004599706043810097, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.004599706043810097, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.30531201886304254}</t>
@@ -1075,7 +1075,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0, 477.0: 0.00027032451531257496, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
@@ -1117,16 +1117,16 @@
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.8931528804202653, 681.0: 0.06988282061991512, 171.0: 0.00033600748461987644, 90.0: 5.0273835865930085e-05, 420.0: 8.713912659901293e-08, 212.0: 0.0005443168682934325}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.8931528804202653, 681.0: 0.06987674330841935, 171.0: 0.00033600748461987644, 90.0: 5.0273835865930085e-05, 420.0: 8.713912659901293e-08, 212.0: 0.0005443186480744946}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1201,10 +1201,10 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2372956890280223e-06, 184.0: 0.006191381503173426, 227.0: 0.02056555269922879, 844.0: 8.126000407992938e-05}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.0005083687087665827, 435.0: 0.0032377428307123032}</t>
+    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2323045809641737e-06, 184.0: 0.006191381503173426, 227.0: 0.02056555269922879, 844.0: 8.16903781498661e-05}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005025597569608143, 435.0: 0.0032377428307123032}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1213,7 +1213,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.053999443459568e-06}</t>
@@ -1228,7 +1228,7 @@
     <t>{833.0: 0.9992826398852224, 17.0: 0.015223021717511548, 918.0: 0.0009153035400826402}</t>
   </si>
   <si>
-    <t>{834.0: 0.9863658496997241, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -1.0490616541994016e-05}</t>
+    <t>{834.0: 0.9863658496997241, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -9.163481340406811e-06}</t>
   </si>
   <si>
     <t>{835.0: 1.0, 756.0: 0.012552301255230125, 836.0: 0.0061525840853158325}</t>
@@ -1249,7 +1249,7 @@
     <t>{842.0: 1.0, 606.0: 0.002308136180034622}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1258,13 +1258,13 @@
     <t>{846.0: 0.9996156310057656}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0, 315.0: 0.002220029600394672}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 1.0, 229.0: 1.0}</t>
@@ -1288,7 +1288,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06410669123707292, 107.0: 0.0278667936092618, 505.0: 0.0002593187665858292}</t>
+    <t>{858.0: 0.308581204304183, 107.0: 0.0278667936092618, 505.0: 0.0002593187665858292}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1327,25 +1327,25 @@
     <t>{894.0: 0.9841479524438573}</t>
   </si>
   <si>
-    <t>{895.0: 1.0, 209.0: 0.08115275122291041, 896.0: 1.0, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 629.0: 1.0, 788.0: 0.513246688327918}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.30367580884278944, 270.0: 0.0003317515081802529, 479.0: 7.023788701009786e-06, 769.0: 0.4943955164131305}</t>
+    <t>{895.0: 1.0, 209.0: 0.08122287673012647, 896.0: 1.0, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 629.0: 1.0, 788.0: 0.5105034182722188}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.30367580884278944, 270.0: 0.0003317515081802529, 479.0: 6.815726159460524e-06, 769.0: 0.4943955164131305}</t>
   </si>
   <si>
     <t>{906.0: 0.9635111446089225, 477.0: 0.002357946634454042, 202.0: 6.242014983442577e-05, 307.0: 0.00020589697722602968, 680.0: 0.0004344053635620134, 481.0: 8.050461541042687e-06}</t>
   </si>
   <si>
-    <t>{788.0: 0.46065727549643454}</t>
+    <t>{788.0: 0.4635006889360994}</t>
   </si>
   <si>
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
-  </si>
-  <si>
-    <t>{861.0: 1.0, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028425812659627287, 619.0: 0.0001431947985895543, 253.0: 0.011289173778102075}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
+  </si>
+  <si>
+    <t>{861.0: 1.0, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028425812659627287, 619.0: 0.0001431947985895543, 253.0: 0.01128966748336775}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1399,7 +1399,7 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 299.0: 0.05782857142857143, 702.0: 0.001214462730723679}</t>
+    <t>{933.0: 1.0, 299.0: 0.05782857142857143, 702.0: 0.0011043383030745514}</t>
   </si>
   <si>
     <t>{934.0: 1.0, 5.0: 0.0029201396313996318}</t>
@@ -1408,13 +1408,13 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{936.0: 1.0, 702.0: 0.00023827152267468142}</t>
-  </si>
-  <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{936.0: 1.0, 702.0: 0.0002166656599373377}</t>
+  </si>
+  <si>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1423,13 +1423,13 @@
     <t>{942.0: 0.9686767526102706}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 152.0: 0.00043336244194414986}</t>
+    <t>{971.0: 0.9959752321981424, 152.0: 0.00042499476517949327}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1438,7 +1438,7 @@
     <t>{973.0: 1.0, 565.0: 0.010326270022292377}</t>
   </si>
   <si>
-    <t>{975.0: 0.9941776158300827, 152.0: 0.07117800722589049}</t>
+    <t>{975.0: 0.9941776158300827, 152.0: 0.07117860548757622}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1627,10 +1627,10 @@
     <t>{177.0: 0.9988607234406153, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.46234052964435124, 850.0: 0.00020695636958117784}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.00722748362491933, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.4614108006709617, 850.0: 0.00020654019725647354}</t>
   </si>
   <si>
     <t>{180.0: 0.991042837624022, 850.0: 0.00044361810099553367, 410.0: 0.008424286533929168, 77.0: 8.925774105375951e-05}</t>
@@ -1675,7 +1675,7 @@
     <t>{212.0: 0.9935532802426998, 681.0: 0.006446719757299962}</t>
   </si>
   <si>
-    <t>{213.0: 0.9985304922850845, 85.0: 0.0014214157017900036, 178.0: 3.498470733667284e-05, 492.0: 1.307387162730432e-05, 97.0: 2.674732921791012e-08, 696.0: 6.68683230447753e-09}</t>
+    <t>{213.0: 0.9985304922850845, 85.0: 0.0014214157017900036, 178.0: 3.498470733667284e-05, 492.0: 1.3073871627304318e-05, 97.0: 2.674732921791012e-08, 696.0: 6.68683230447753e-09}</t>
   </si>
   <si>
     <t>{214.0: 0.9995245265076472, 99.0: 0.00047240036998754287, 230.0: 3.0731223652585403e-06}</t>
@@ -1738,7 +1738,7 @@
     <t>{271.0: 0.8115203638861601, 237.0: 0.1884796361138399}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
+    <t>{275.0: 0.944592580371491, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937943, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1795,9 +1795,6 @@
     <t>{315.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
   </si>
   <si>
@@ -1816,7 +1813,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.494820544803916, 404.0: 0.3930108881632079, 907.0: 0.11216856703287592}</t>
+    <t>{405.0: 0.49483827665109575, 404.0: 0.3929931563160284, 907.0: 0.11216856703287592}</t>
   </si>
   <si>
     <t>{410.0: 0.9895157952821076, 77.0: 0.010484204717892126}</t>
@@ -1882,7 +1879,7 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720767471169998, 97.0: 0.011519836235458275, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{492.0: 0.972076747116999, 97.0: 0.011519836235458275, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2086,7 +2083,7 @@
     <t>{694.0: 0.9378271162681556, 86.0: 0.060026585002103325, 107.0: 0.0021384813686134603, 505.0: 7.817361128107671e-06}</t>
   </si>
   <si>
-    <t>{696.0: 0.9962990623748829, 14.0: 0.0016889024071631378, 492.0: 0.0020079272770584643, 97.0: 4.107940895865923e-06}</t>
+    <t>{696.0: 0.9962990623748829, 14.0: 0.0016889024071631378, 492.0: 0.0020079272770584635, 97.0: 4.107940895865923e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2170,7 +2167,7 @@
     <t>{781.0: 0.9989279297523233, 81.0: 0.0003496014686487367, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611931, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2302,13 +2299,13 @@
     <t>{937.0: 0.9949109414758269, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
-    <t>{940.0: 0.9864997747918502, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9864997747918502, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.16133961771190689, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.770064142065748, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -4791,7 +4788,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>593</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4802,7 +4799,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4813,7 +4810,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4824,7 +4821,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4835,7 +4832,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4846,7 +4843,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4857,7 +4854,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4868,7 +4865,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4912,7 +4909,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4934,7 +4931,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4978,7 +4975,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5000,7 +4997,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5033,7 +5030,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5055,7 +5052,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5077,7 +5074,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5088,7 +5085,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5132,7 +5129,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5154,7 +5151,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5165,7 +5162,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5176,7 +5173,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5198,7 +5195,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5231,7 +5228,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5242,7 +5239,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5253,7 +5250,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5264,7 +5261,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5275,7 +5272,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5286,7 +5283,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5308,7 +5305,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5374,7 +5371,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5407,7 +5404,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5418,7 +5415,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5429,7 +5426,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5451,7 +5448,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5462,7 +5459,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5473,7 +5470,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5484,7 +5481,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5528,7 +5525,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5550,7 +5547,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5561,7 +5558,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5572,7 +5569,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5583,7 +5580,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5605,7 +5602,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5627,7 +5624,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5638,7 +5635,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5649,7 +5646,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5671,7 +5668,7 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5682,7 +5679,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5704,7 +5701,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5715,7 +5712,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5726,7 +5723,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5737,7 +5734,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5748,7 +5745,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5759,7 +5756,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5781,7 +5778,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5792,7 +5789,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5814,7 +5811,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5825,7 +5822,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5847,7 +5844,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5858,7 +5855,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5880,7 +5877,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5902,7 +5899,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5913,7 +5910,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5935,7 +5932,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5946,7 +5943,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5968,7 +5965,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5979,7 +5976,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5990,7 +5987,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6001,7 +5998,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6012,7 +6009,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6034,7 +6031,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6045,7 +6042,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6056,7 +6053,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6067,7 +6064,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6078,7 +6075,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6089,7 +6086,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6100,7 +6097,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6122,7 +6119,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6133,7 +6130,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6166,7 +6163,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6188,7 +6185,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6199,7 +6196,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6221,7 +6218,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6276,7 +6273,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6287,7 +6284,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6342,7 +6339,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6353,7 +6350,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6364,7 +6361,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6375,7 +6372,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6386,7 +6383,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6397,7 +6394,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6408,7 +6405,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6419,7 +6416,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6430,7 +6427,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6441,7 +6438,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6452,7 +6449,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6474,7 +6471,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6485,7 +6482,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6496,7 +6493,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6518,7 +6515,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6529,7 +6526,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6540,7 +6537,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6562,7 +6559,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6573,7 +6570,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6595,7 +6592,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6606,7 +6603,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6617,7 +6614,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6650,7 +6647,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6661,7 +6658,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6694,7 +6691,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6705,7 +6702,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6716,7 +6713,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6727,7 +6724,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6738,7 +6735,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6749,7 +6746,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6793,7 +6790,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6837,7 +6834,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6848,7 +6845,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6859,7 +6856,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6870,7 +6867,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6903,7 +6900,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6936,7 +6933,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6969,7 +6966,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6980,7 +6977,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7024,7 +7021,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7035,7 +7032,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7068,7 +7065,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7079,7 +7076,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7090,7 +7087,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7112,7 +7109,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7123,7 +7120,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7134,7 +7131,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7145,7 +7142,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7156,7 +7153,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7167,7 +7164,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7178,7 +7175,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7189,7 +7186,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7200,7 +7197,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7222,7 +7219,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7233,7 +7230,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7244,7 +7241,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7255,7 +7252,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7266,7 +7263,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7277,7 +7274,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7288,7 +7285,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7343,7 +7340,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7398,7 +7395,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7409,7 +7406,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7420,7 +7417,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7475,7 +7472,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7486,7 +7483,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7497,7 +7494,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7508,7 +7505,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7519,7 +7516,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7530,7 +7527,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7541,7 +7538,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7552,7 +7549,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7574,7 +7571,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7596,7 +7593,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7607,7 +7604,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7618,7 +7615,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7640,7 +7637,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7651,7 +7648,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7684,7 +7681,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7717,7 +7714,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7739,7 +7736,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7750,7 +7747,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7761,7 +7758,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7783,7 +7780,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7794,7 +7791,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7805,7 +7802,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7827,7 +7824,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7838,7 +7835,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7849,7 +7846,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7860,7 +7857,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7882,7 +7879,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7893,7 +7890,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7926,7 +7923,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7937,7 +7934,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7948,7 +7945,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7992,7 +7989,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
